--- a/WebFor/src/WebFor.Web/wwwroot/files/WebForPriceList.xlsx
+++ b/WebFor/src/WebFor.Web/wwwroot/files/WebForPriceList.xlsx
@@ -239,13 +239,13 @@
     <t>بهینه سازی دسترسی(معلولین)</t>
   </si>
   <si>
-    <t>هزینه پروژه * 4</t>
-  </si>
-  <si>
     <t>... - 200000</t>
   </si>
   <si>
     <t>قیمت به تومان</t>
+  </si>
+  <si>
+    <t>هزینه پروژه * 6</t>
   </si>
 </sst>
 </file>
@@ -1131,8 +1131,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1152,7 +1152,7 @@
         <v>59</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1537,7 +1537,7 @@
         <v>27</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C40" s="8"/>
     </row>
@@ -1814,7 +1814,7 @@
       </c>
       <c r="B70" s="4"/>
       <c r="C70" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
